--- a/public/sample_games.xlsx
+++ b/public/sample_games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Home Team Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Game Start Time</t>
   </si>
   <si>
-    <t>Game End Time</t>
-  </si>
-  <si>
     <t>Team A</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>2025-10-29 10:00:00</t>
   </si>
   <si>
-    <t>2025-10-29 12:00:00</t>
-  </si>
-  <si>
     <t>Team C</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>2025-10-30 14:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-30 16:00:00</t>
   </si>
 </sst>
 </file>
@@ -404,15 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,48 +424,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_games.xlsx
+++ b/public/sample_games.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
   </bookViews>
   <sheets>
-    <sheet name="SampleGames" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -43,7 +43,7 @@
     <t>john@example.com</t>
   </si>
   <si>
-    <t>2025-10-29 10:00:00</t>
+    <t>09/12/2025 10:00 AM</t>
   </si>
   <si>
     <t>Team C</t>
@@ -58,7 +58,7 @@
     <t>emma.smith@gmail.com</t>
   </si>
   <si>
-    <t>2025-10-30 14:00:00</t>
+    <t>04/12/2025 02:00 PM</t>
   </si>
 </sst>
 </file>
@@ -94,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,14 +399,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -421,7 +423,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -438,7 +440,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -455,12 +457,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>